--- a/実行結果/お互いにDP(cost-kaiki).xlsx
+++ b/実行結果/お互いにDP(cost-kaiki).xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E528DEA7-2ECF-4353-80F1-7D49CBEA993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E7128D-FAA5-42C3-8C41-3DBCDC26B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10320" xr2:uid="{A5E8F1FB-10E4-4845-BE6D-A7E0EEB87438}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10320" activeTab="1" xr2:uid="{A5E8F1FB-10E4-4845-BE6D-A7E0EEB87438}"/>
   </bookViews>
   <sheets>
-    <sheet name="お互いにDP(cost-kaiki)" sheetId="1" r:id="rId1"/>
+    <sheet name="お互いにDP(cost-kaiki)" sheetId="2" r:id="rId1"/>
+    <sheet name="お互いにDP(cost-kaiki)2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>seed</t>
   </si>
@@ -1082,10 +1097,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E0D11-E2AC-4F14-BB18-F51932DE34A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA0182-6E65-489A-B658-A84B4D94D283}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1197,19 +1212,19 @@
         <v>36.409999999999997</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F44" si="0">B3-E3</f>
+        <f t="shared" ref="F3:F66" si="0">B3-E3</f>
         <v>33.14500000000001</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G44" si="1">D3-C3</f>
+        <f t="shared" ref="G3:G66" si="1">D3-C3</f>
         <v>1.8970000000000198</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H44" si="2">F3/B3</f>
+        <f t="shared" ref="H3:H66" si="2">F3/B3</f>
         <v>0.47652936525052125</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I44" si="3">G3/D3</f>
+        <f t="shared" ref="I3:I33" si="3">G3/D3</f>
         <v>8.9074833190119582E-3</v>
       </c>
       <c r="K3" t="s">
@@ -2275,19 +2290,19 @@
         <v>146.17899999999901</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F67" si="4">B35-E35</f>
+        <f t="shared" si="0"/>
         <v>-1.1709999999989975</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G67" si="5">D35-C35</f>
+        <f t="shared" si="1"/>
         <v>-1.0249999999990109</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:H67" si="6">F35/B35</f>
+        <f t="shared" si="2"/>
         <v>-8.0754165287363275E-3</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I67" si="7">G35/D35</f>
+        <f t="shared" ref="I35:I67" si="4">G35/D35</f>
         <v>-4.3227240330762648E-3</v>
       </c>
     </row>
@@ -2308,19 +2323,19 @@
         <v>143.68199999999999</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.685000000000002</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-6.6999999999978854E-2</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.22487821456893625</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-2.8036053527931079E-4</v>
       </c>
     </row>
@@ -2341,19 +2356,19 @@
         <v>174.07299999999901</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>30.951999999999998</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-2.9800000000010129</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.15096695524936055</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1.2464029980597209E-2</v>
       </c>
     </row>
@@ -2374,19 +2389,19 @@
         <v>23.4149999999999</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.9359999999997992</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>25.121999999999801</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.51269461851539166</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.36205629296553926</v>
       </c>
     </row>
@@ -2407,19 +2422,19 @@
         <v>69.699999999999804</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.3709999999999098</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.56799999999898887</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-5.0822415534681892E-2</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.8763280229244952E-3</v>
       </c>
     </row>
@@ -2440,19 +2455,19 @@
         <v>103.331999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.2079999999990036</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-3.3479999999999848</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-7.4986475802078609E-2</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1.5225102319236015E-2</v>
       </c>
     </row>
@@ -2473,19 +2488,19 @@
         <v>128.57300000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-17.251000000000005</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.25899999999899137</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.15496487666409159</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1.0949151969113725E-3</v>
       </c>
     </row>
@@ -2506,19 +2521,19 @@
         <v>171.022999999999</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-5.7049999999989893</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-3.4379999999990218</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-3.4509248841620328E-2</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1.3791222236035372E-2</v>
       </c>
     </row>
@@ -2539,19 +2554,19 @@
         <v>187.06800000000001</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.7999999999989882</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.5760000000000218</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.5017199324530476E-2</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-6.1876231831710067E-3</v>
       </c>
     </row>
@@ -2572,19 +2587,19 @@
         <v>16.640999999999899</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11.429000000000102</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7.7069999999999936</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.40716066975418957</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.2339238049017177E-2</v>
       </c>
     </row>
@@ -2605,19 +2620,19 @@
         <v>86.844999999999899</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.7270000000001033</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2970000000000255</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5.1620582710873449E-2</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.2159155801852737E-3</v>
       </c>
     </row>
@@ -2638,19 +2653,19 @@
         <v>103.727</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25.801999999998998</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.021000000000015</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.19919863505469199</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-3.946992013236607E-3</v>
       </c>
     </row>
@@ -2671,19 +2686,19 @@
         <v>119.601</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28.433999999999003</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-3.1500000000000341</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.19207619819636704</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1.2079656707660981E-2</v>
       </c>
     </row>
@@ -2704,19 +2719,19 @@
         <v>171.558999999999</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.0759999999999934</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.11899999999900501</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5.0244969136657033E-2</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-4.3916462768436615E-4</v>
       </c>
     </row>
@@ -2737,19 +2752,19 @@
         <v>173.86699999999999</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11.918999999999016</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.7680000000000291</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6.415445727879969E-2</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-6.5104837937562535E-3</v>
       </c>
     </row>
@@ -2770,19 +2785,19 @@
         <v>27.28</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.6850000000000982</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>25.929999999998898</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.4494904344720035E-2</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.23286305712463184</v>
       </c>
     </row>
@@ -2803,19 +2818,19 @@
         <v>100.38399999999901</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.7309999999999945</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.0250000000000057</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.5835374345675748E-2</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.9877367325472118E-3</v>
       </c>
     </row>
@@ -2836,19 +2851,19 @@
         <v>144.866999999999</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2869,19 +2884,19 @@
         <v>154.392</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.1839999999990027</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.5180000000000007</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.8511359107208057E-2</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-6.286339015057426E-3</v>
       </c>
     </row>
@@ -2902,19 +2917,19 @@
         <v>180.83199999999999</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.1219999999990193</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.21000000000100272</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1.1598543896274642E-2</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.4599301451886242E-4</v>
       </c>
     </row>
@@ -2935,19 +2950,19 @@
         <v>179.869</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15.370000000000005</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-5.210000000000008</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7.8724025425248048E-2</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-2.0820345593759608E-2</v>
       </c>
     </row>
@@ -2968,19 +2983,19 @@
         <v>13.1479999999999</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25.305000000000003</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>23.090000000000003</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.65807609289262392</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.18657832006787758</v>
       </c>
     </row>
@@ -3001,19 +3016,19 @@
         <v>80.22</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.914000000000101</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.1409999999989964</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4.6521025982362615E-2</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.7104992221577445E-3</v>
       </c>
     </row>
@@ -3034,19 +3049,19 @@
         <v>132.40199999999899</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.3309999999999889</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-4.7780000000009863</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-5.8614706846511558E-2</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-2.0821893929494083E-2</v>
       </c>
     </row>
@@ -3067,19 +3082,19 @@
         <v>146.63499999999999</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-6.789999999999992</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-3.3799999999999955</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-4.8553755944080887E-2</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1.3978494623655895E-2</v>
       </c>
     </row>
@@ -3100,19 +3115,19 @@
         <v>170.04899999999901</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.75699999999901024</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.55799999999899796</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-4.4715639250467254E-3</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.2385095858717158E-3</v>
       </c>
     </row>
@@ -3133,19 +3148,19 @@
         <v>194.79999999999899</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.407999999999987</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.299999999899228E-2</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.2516112936088817E-2</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.3191610135550755E-4</v>
       </c>
     </row>
@@ -3166,19 +3181,19 @@
         <v>24.370999999999899</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.6509999999999998</v>
       </c>
       <c r="G62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2599999999997067</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.6017104947646169E-2</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.821125050586388E-2</v>
       </c>
     </row>
@@ -3199,19 +3214,19 @@
         <v>76.933999999999997</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5.9629999999998091</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.2340000000000089</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7.1932639299369369E-2</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.4924477712503166E-2</v>
       </c>
     </row>
@@ -3232,19 +3247,19 @@
         <v>117.491</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.5589999999990027</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2930000000010011</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.7353543629652111E-2</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.5644016008994327E-3</v>
       </c>
     </row>
@@ -3265,19 +3280,19 @@
         <v>150.30999999999901</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-9.1080000000000041</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.0630000000010114</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-6.4503335646804355E-2</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-4.4914670576497156E-3</v>
       </c>
     </row>
@@ -3298,19 +3313,19 @@
         <v>186.32999999999899</v>
       </c>
       <c r="F66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.39999999999997726</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.0949999999999989</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-2.1513472812347625E-3</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-4.5485133215362903E-3</v>
       </c>
     </row>
@@ -3331,18 +3346,1572 @@
         <v>198.40600000000001</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F67:F99" si="5">B67-E67</f>
         <v>-2.3689999999999998</v>
       </c>
       <c r="G67">
+        <f t="shared" ref="G67:G99" si="6">D67-C67</f>
+        <v>-2.2340000000010036</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H99" si="7">F67/B67</f>
+        <v>-1.2084453445012929E-2</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.1982229395651746E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E0D11-E2AC-4F14-BB18-F51932DE34A3}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(H2:H47)</f>
+        <v>5.090562085483849E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>AVERAGE(I2:I47)</f>
+        <v>-2.1057097951030831E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MAX(H2:H47)</f>
+        <v>0.24447998031859286</v>
+      </c>
+      <c r="M3" s="1">
+        <f>MAX(I2:I47)</f>
+        <v>6.8800399035663901E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>97.554000000000002</v>
+      </c>
+      <c r="C4">
+        <v>227.447</v>
+      </c>
+      <c r="D4">
+        <v>232.53899999999999</v>
+      </c>
+      <c r="E4">
+        <v>73.703999999999994</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F24" si="0">B4-E4</f>
+        <v>23.850000000000009</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G24" si="1">D4-C4</f>
+        <v>5.0919999999999845</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H24" si="2">F4/B4</f>
+        <v>0.24447998031859286</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I23" si="3">G4/D4</f>
+        <v>2.1897402156197388E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(H2:H47)</f>
+        <v>-0.15496487666409159</v>
+      </c>
+      <c r="M4" s="1">
+        <f>MIN(I2:I47)</f>
+        <v>-2.0821893929494083E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>107.536</v>
+      </c>
+      <c r="C5">
+        <v>231.77099999999999</v>
+      </c>
+      <c r="D5">
+        <v>233.02600000000001</v>
+      </c>
+      <c r="E5">
+        <v>107.02</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.51600000000000534</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.2550000000000239</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7983930962654867E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3856651189138714E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>141.41999999999999</v>
+      </c>
+      <c r="C6">
+        <v>249.49299999999999</v>
+      </c>
+      <c r="D6">
+        <v>250.18299999999999</v>
+      </c>
+      <c r="E6">
+        <v>140.91</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.68999999999999773</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6062791684343867E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.757981157792487E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>142.79599999999999</v>
+      </c>
+      <c r="C7">
+        <v>249.999</v>
+      </c>
+      <c r="D7">
+        <v>252.26900000000001</v>
+      </c>
+      <c r="E7">
+        <v>144.75299999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-1.9569999999999936</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.2700000000000102</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3704865682512071E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9983311465142764E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>152.08600000000001</v>
+      </c>
+      <c r="C8">
+        <v>247.48</v>
+      </c>
+      <c r="D8">
+        <v>245.928</v>
+      </c>
+      <c r="E8">
+        <v>151.572</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.51400000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1.5519999999999925</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3796667674868821E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.3107901499625599E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>171.72</v>
+      </c>
+      <c r="C9">
+        <v>251.959</v>
+      </c>
+      <c r="D9">
+        <v>249.41</v>
+      </c>
+      <c r="E9">
+        <v>148.26300000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>23.456999999999994</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-2.5490000000000066</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1366002795248078</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.0220119481977494E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>202.00800000000001</v>
+      </c>
+      <c r="C10">
+        <v>260.25599999999997</v>
+      </c>
+      <c r="D10">
+        <v>255.00899999999999</v>
+      </c>
+      <c r="E10">
+        <v>176.602</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>25.406000000000006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-5.2469999999999857</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12576729634469924</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0575744385492221E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>205.14599999999999</v>
+      </c>
+      <c r="C11">
+        <v>260.70100000000002</v>
+      </c>
+      <c r="D11">
+        <v>259.85599999999999</v>
+      </c>
+      <c r="E11">
+        <v>190.3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>14.845999999999975</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.84500000000002728</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2367972078422077E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.2518009974756299E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>129.529</v>
+      </c>
+      <c r="C12">
+        <v>259.69900000000001</v>
+      </c>
+      <c r="D12">
+        <v>258.678</v>
+      </c>
+      <c r="E12">
+        <v>103.727</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>25.801999999999992</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-1.021000000000015</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19919863505469812</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.9469920132365914E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>148.035</v>
+      </c>
+      <c r="C13">
+        <v>263.91899999999998</v>
+      </c>
+      <c r="D13">
+        <v>260.76900000000001</v>
+      </c>
+      <c r="E13">
+        <v>119.601</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>28.433999999999997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-3.1499999999999773</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19207619819637248</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2079656707660716E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>180.63499999999999</v>
+      </c>
+      <c r="C14">
+        <v>271.08800000000002</v>
+      </c>
+      <c r="D14">
+        <v>270.96899999999999</v>
+      </c>
+      <c r="E14">
+        <v>171.559</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9.0759999999999934</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-0.11900000000002819</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0244969136656763E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.3916462768814216E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>185.786</v>
+      </c>
+      <c r="C15">
+        <v>273.33</v>
+      </c>
+      <c r="D15">
+        <v>271.56200000000001</v>
+      </c>
+      <c r="E15">
+        <v>173.86699999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>11.919000000000011</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-1.7679999999999723</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>6.41544572788047E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.5104837937560193E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>144.86699999999999</v>
+      </c>
+      <c r="C16">
+        <v>238.922</v>
+      </c>
+      <c r="D16">
+        <v>238.922</v>
+      </c>
+      <c r="E16">
+        <v>144.86699999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>160.57599999999999</v>
+      </c>
+      <c r="C17">
+        <v>242.994</v>
+      </c>
+      <c r="D17">
+        <v>241.476</v>
+      </c>
+      <c r="E17">
+        <v>154.392</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6.1839999999999975</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-1.5180000000000007</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8511359107214017E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.2863390150573999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>182.95400000000001</v>
+      </c>
+      <c r="C18">
+        <v>248.01900000000001</v>
+      </c>
+      <c r="D18">
+        <v>248.22900000000001</v>
+      </c>
+      <c r="E18">
+        <v>180.83199999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.1220000000000141</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1598543896280017E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4599301451485499E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>195.239</v>
+      </c>
+      <c r="C19">
+        <v>255.446</v>
+      </c>
+      <c r="D19">
+        <v>250.23599999999999</v>
+      </c>
+      <c r="E19">
+        <v>179.869</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>15.370000000000005</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-5.210000000000008</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8724025425248048E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0820345593759525E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>97.298000000000002</v>
+      </c>
+      <c r="C20">
+        <v>224.02799999999999</v>
+      </c>
+      <c r="D20">
+        <v>240.58</v>
+      </c>
+      <c r="E20">
+        <v>90.256</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>7.0420000000000016</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>16.552000000000021</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2375588398528243E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8800399035663901E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>112.12</v>
+      </c>
+      <c r="C21">
+        <v>228.369</v>
+      </c>
+      <c r="D21">
+        <v>243.435</v>
+      </c>
+      <c r="E21">
+        <v>90.12</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>15.066000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19621833749554049</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1889210672253385E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>145.268</v>
+      </c>
+      <c r="C22">
+        <v>252.87700000000001</v>
+      </c>
+      <c r="D22">
+        <v>249.761</v>
+      </c>
+      <c r="E22">
+        <v>123.749</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>21.519000000000005</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-3.1160000000000139</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14813310570807064</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2475926986198862E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>147.08099999999999</v>
+      </c>
+      <c r="C23">
+        <v>253.05</v>
+      </c>
+      <c r="D23">
+        <v>252.33600000000001</v>
+      </c>
+      <c r="E23">
+        <v>151.20699999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-4.1260000000000048</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-0.71399999999999864</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.8052569672493421E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.8295605858854804E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>121.182999999999</v>
+      </c>
+      <c r="C24">
+        <v>236.10300000000001</v>
+      </c>
+      <c r="D24">
+        <v>233.81799999999899</v>
+      </c>
+      <c r="E24">
+        <v>116.084</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>5.0989999999989948</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-2.2850000000010198</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2076858965358482E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <f>G24/D24</f>
+        <v>-9.7725581435177348E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>145.00800000000001</v>
+      </c>
+      <c r="C25">
+        <v>238.14399999999901</v>
+      </c>
+      <c r="D25">
+        <v>237.119</v>
+      </c>
+      <c r="E25">
+        <v>146.17899999999901</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F47" si="4">B25-E25</f>
+        <v>-1.1709999999989975</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G47" si="5">D25-C25</f>
+        <v>-1.0249999999990109</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ref="H25:H47" si="6">F25/B25</f>
+        <v>-8.0754165287363275E-3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ref="I25:I47" si="7">G25/D25</f>
+        <v>-4.3227240330762648E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>185.36699999999999</v>
+      </c>
+      <c r="C26">
+        <v>239.04499999999899</v>
+      </c>
+      <c r="D26">
+        <v>238.97799999999901</v>
+      </c>
+      <c r="E26">
+        <v>143.68199999999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>41.685000000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>-6.6999999999978854E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.22487821456893625</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.8036053527931079E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>205.02499999999901</v>
+      </c>
+      <c r="C27">
+        <v>242.06800000000001</v>
+      </c>
+      <c r="D27">
+        <v>239.087999999999</v>
+      </c>
+      <c r="E27">
+        <v>174.07299999999901</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>30.951999999999998</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>-2.9800000000010129</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.15096695524936055</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2464029980597209E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>96.123999999999995</v>
+      </c>
+      <c r="C28">
+        <v>223.247999999999</v>
+      </c>
+      <c r="D28">
+        <v>219.89999999999901</v>
+      </c>
+      <c r="E28">
+        <v>103.331999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>-7.2079999999990036</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>-3.3479999999999848</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.4986475802078609E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.5225102319236015E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>111.322</v>
+      </c>
+      <c r="C29">
+        <v>236.80699999999899</v>
+      </c>
+      <c r="D29">
+        <v>236.548</v>
+      </c>
+      <c r="E29">
+        <v>128.57300000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>-17.251000000000005</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>-0.25899999999899137</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.15496487666409159</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.0949151969113725E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>165.31800000000001</v>
+      </c>
+      <c r="C30">
+        <v>252.72699999999901</v>
+      </c>
+      <c r="D30">
+        <v>249.28899999999999</v>
+      </c>
+      <c r="E30">
+        <v>171.022999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>-5.7049999999989893</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>-3.4379999999990218</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.4509248841620328E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.3791222236035372E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>191.867999999999</v>
+      </c>
+      <c r="C31">
+        <v>256.27800000000002</v>
+      </c>
+      <c r="D31">
+        <v>254.702</v>
+      </c>
+      <c r="E31">
+        <v>187.06800000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>4.7999999999989882</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>-1.5760000000000218</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5017199324530476E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.1876231831710067E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>129.528999999999</v>
+      </c>
+      <c r="C32">
+        <v>259.69899999999899</v>
+      </c>
+      <c r="D32">
+        <v>258.67799999999897</v>
+      </c>
+      <c r="E32">
+        <v>103.727</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>25.801999999998998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>-1.021000000000015</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.19919863505469199</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.946992013236607E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>148.034999999999</v>
+      </c>
+      <c r="C33">
+        <v>263.91899999999902</v>
+      </c>
+      <c r="D33">
+        <v>260.76899999999898</v>
+      </c>
+      <c r="E33">
+        <v>119.601</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>28.433999999999003</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>-3.1500000000000341</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="6"/>
+        <v>0.19207619819636704</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2079656707660981E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>180.634999999999</v>
+      </c>
+      <c r="C34">
+        <v>271.087999999999</v>
+      </c>
+      <c r="D34">
+        <v>270.96899999999999</v>
+      </c>
+      <c r="E34">
+        <v>171.558999999999</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>9.0759999999999934</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>-0.11899999999900501</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="6"/>
+        <v>5.0244969136657033E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.3916462768436615E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>185.78599999999901</v>
+      </c>
+      <c r="C35">
+        <v>273.32999999999902</v>
+      </c>
+      <c r="D35">
+        <v>271.56199999999899</v>
+      </c>
+      <c r="E35">
+        <v>173.86699999999999</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>11.918999999999016</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>-1.7680000000000291</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="6"/>
+        <v>6.415445727879969E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.5104837937562535E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>144.866999999999</v>
+      </c>
+      <c r="C36">
+        <v>238.922</v>
+      </c>
+      <c r="D36">
+        <v>238.922</v>
+      </c>
+      <c r="E36">
+        <v>144.866999999999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>160.575999999999</v>
+      </c>
+      <c r="C37">
+        <v>242.99399999999901</v>
+      </c>
+      <c r="D37">
+        <v>241.475999999999</v>
+      </c>
+      <c r="E37">
+        <v>154.392</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>6.1839999999990027</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>-1.5180000000000007</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8511359107208057E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.286339015057426E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>182.95399999999901</v>
+      </c>
+      <c r="C38">
+        <v>248.01899999999901</v>
+      </c>
+      <c r="D38">
+        <v>248.22900000000001</v>
+      </c>
+      <c r="E38">
+        <v>180.83199999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>2.1219999999990193</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>0.21000000000100272</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1598543896274642E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="7"/>
+        <v>8.4599301451886242E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>195.239</v>
+      </c>
+      <c r="C39">
+        <v>255.445999999999</v>
+      </c>
+      <c r="D39">
+        <v>250.235999999999</v>
+      </c>
+      <c r="E39">
+        <v>179.869</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>15.370000000000005</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>-5.210000000000008</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="6"/>
+        <v>7.8724025425248048E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.0820345593759608E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>125.070999999999</v>
+      </c>
+      <c r="C40">
+        <v>234.24799999999999</v>
+      </c>
+      <c r="D40">
+        <v>229.469999999999</v>
+      </c>
+      <c r="E40">
+        <v>132.40199999999899</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>-7.3309999999999889</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>-4.7780000000009863</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="6"/>
+        <v>-5.8614706846511558E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.0821893929494083E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>139.845</v>
+      </c>
+      <c r="C41">
+        <v>245.18</v>
+      </c>
+      <c r="D41">
+        <v>241.8</v>
+      </c>
+      <c r="E41">
+        <v>146.63499999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>-6.789999999999992</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>-3.3799999999999955</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.8553755944080887E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.3978494623655895E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>169.292</v>
+      </c>
+      <c r="C42">
+        <v>248.715</v>
+      </c>
+      <c r="D42">
+        <v>249.272999999999</v>
+      </c>
+      <c r="E42">
+        <v>170.04899999999901</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>-0.75699999999901024</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0.55799999999899796</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.4715639250467254E-3</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2385095858717158E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>192.391999999999</v>
+      </c>
+      <c r="C43">
+        <v>250.126</v>
+      </c>
+      <c r="D43">
+        <v>250.158999999999</v>
+      </c>
+      <c r="E43">
+        <v>194.79999999999899</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>-2.407999999999987</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>3.299999999899228E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.2516112936088817E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3191610135550755E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>122.049999999999</v>
+      </c>
+      <c r="C44">
+        <v>231.076999999999</v>
+      </c>
+      <c r="D44">
+        <v>232.37</v>
+      </c>
+      <c r="E44">
+        <v>117.491</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>4.5589999999990027</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>1.2930000000010011</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7353543629652111E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5644016008994327E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>141.201999999999</v>
+      </c>
+      <c r="C45">
+        <v>237.73400000000001</v>
+      </c>
+      <c r="D45">
+        <v>236.670999999999</v>
+      </c>
+      <c r="E45">
+        <v>150.30999999999901</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>-9.1080000000000041</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>-1.0630000000010114</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.4503335646804355E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.4914670576497156E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>185.92999999999901</v>
+      </c>
+      <c r="C46">
+        <v>241.832999999999</v>
+      </c>
+      <c r="D46">
+        <v>240.737999999999</v>
+      </c>
+      <c r="E46">
+        <v>186.32999999999899</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>-0.39999999999997726</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>-1.0949999999999989</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.1513472812347625E-3</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.5485133215362903E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>196.03700000000001</v>
+      </c>
+      <c r="C47">
+        <v>245.107</v>
+      </c>
+      <c r="D47">
+        <v>242.872999999999</v>
+      </c>
+      <c r="E47">
+        <v>198.40600000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>-2.3689999999999998</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="5"/>
         <v>-2.2340000000010036</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="6"/>
         <v>-1.2084453445012929E-2</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I47" s="1">
         <f t="shared" si="7"/>
         <v>-9.1982229395651746E-3</v>
       </c>
